--- a/Data/Radiation/ShortwaveRadiation-Dec31.xlsx
+++ b/Data/Radiation/ShortwaveRadiation-Dec31.xlsx
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>201.566109692352</v>
+        <v>237.535114594817</v>
       </c>
       <c r="C15">
-        <v>18.1190781518803</v>
+        <v>21.6114753073026</v>
       </c>
       <c r="D15">
-        <v>18.1190781518803</v>
+        <v>21.6114753073026</v>
       </c>
       <c r="E15">
-        <v>105.285426587708</v>
+        <v>121.527995069443</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>380.964860498908</v>
+        <v>402.590657504524</v>
       </c>
       <c r="C16">
-        <v>38.9566673567239</v>
+        <v>41.6860851464394</v>
       </c>
       <c r="D16">
-        <v>38.9566673567239</v>
+        <v>41.6860851464394</v>
       </c>
       <c r="E16">
-        <v>219.726407795858</v>
+        <v>228.158611096878</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>468.736084585211</v>
+        <v>481.929416042741</v>
       </c>
       <c r="C17">
-        <v>54.7273189448374</v>
+        <v>57.0150144385619</v>
       </c>
       <c r="D17">
-        <v>54.7273189448374</v>
+        <v>57.0150144385619</v>
       </c>
       <c r="E17">
-        <v>301.354648844148</v>
+        <v>305.33942437751</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>502.849627637181</v>
+        <v>510.678923145051</v>
       </c>
       <c r="C18">
-        <v>67.4707075412574</v>
+        <v>69.5005355389958</v>
       </c>
       <c r="D18">
-        <v>67.4707075412574</v>
+        <v>69.5005355389958</v>
       </c>
       <c r="E18">
-        <v>364.402116142629</v>
+        <v>365.742169370159</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>501.516245962675</v>
+        <v>505.433442662587</v>
       </c>
       <c r="C19">
-        <v>78.1078862682451</v>
+        <v>79.9555306691245</v>
       </c>
       <c r="D19">
-        <v>78.1078862682451</v>
+        <v>79.9555306691245</v>
       </c>
       <c r="E19">
-        <v>415.346217704159</v>
+        <v>414.898915353996</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>474.310578723493</v>
+        <v>475.116208968325</v>
       </c>
       <c r="C20">
-        <v>87.0079166622961</v>
+        <v>88.7027553167416</v>
       </c>
       <c r="D20">
-        <v>87.0079166622961</v>
+        <v>88.7027553167416</v>
       </c>
       <c r="E20">
-        <v>456.99634648816</v>
+        <v>455.202883516524</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>427.252760982958</v>
+        <v>425.467860961268</v>
       </c>
       <c r="C21">
-        <v>94.3098265179798</v>
+        <v>95.8603791080418</v>
       </c>
       <c r="D21">
-        <v>94.3098265179798</v>
+        <v>95.8603791080418</v>
       </c>
       <c r="E21">
-        <v>490.611771853269</v>
+        <v>487.71424398477</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>364.783201889719</v>
+        <v>360.803825381502</v>
       </c>
       <c r="C22">
-        <v>100.053464527899</v>
+        <v>101.45844529757</v>
       </c>
       <c r="D22">
-        <v>100.053464527899</v>
+        <v>101.45844529757</v>
       </c>
       <c r="E22">
-        <v>516.750615993379</v>
+        <v>512.888502514909</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>290.603396963314</v>
+        <v>284.77103925128</v>
       </c>
       <c r="C23">
-        <v>104.237324218511</v>
+        <v>105.490966841175</v>
       </c>
       <c r="D23">
-        <v>104.237324218511</v>
+        <v>105.490966841175</v>
       </c>
       <c r="E23">
-        <v>535.642121615282</v>
+        <v>530.900028286348</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>208.064774771357</v>
+        <v>200.700813894748</v>
       </c>
       <c r="C24">
-        <v>106.846473121214</v>
+        <v>107.941341232525</v>
       </c>
       <c r="D24">
-        <v>106.846473121214</v>
+        <v>107.941341232525</v>
       </c>
       <c r="E24">
-        <v>547.365060773423</v>
+        <v>541.798704766475</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>107.866744563872</v>
+        <v>108.795312042312</v>
       </c>
       <c r="C25">
-        <v>107.866744563872</v>
+        <v>108.795312042312</v>
       </c>
       <c r="D25">
-        <v>120.3599437305</v>
+        <v>111.783357887652</v>
       </c>
       <c r="E25">
-        <v>551.937630818004</v>
+        <v>545.589181898695</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>107.291699544329</v>
+        <v>108.047249145599</v>
       </c>
       <c r="C26">
-        <v>107.291699544329</v>
+        <v>108.047249145599</v>
       </c>
       <c r="D26">
-        <v>183.960317509581</v>
+        <v>194.934408225454</v>
       </c>
       <c r="E26">
-        <v>549.36122053053</v>
+        <v>542.269007473384</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>105.125026552966</v>
+        <v>105.702102297014</v>
       </c>
       <c r="C27">
-        <v>105.125026552966</v>
+        <v>105.702102297014</v>
       </c>
       <c r="D27">
-        <v>268.25885518701</v>
+        <v>279.422877108835</v>
       </c>
       <c r="E27">
-        <v>539.635425023074</v>
+        <v>531.840439553315</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>101.379209623244</v>
+        <v>101.773696027254</v>
       </c>
       <c r="C28">
-        <v>101.379209623244</v>
+        <v>101.773696027254</v>
       </c>
       <c r="D28">
-        <v>345.100586599187</v>
+        <v>356.087970158165</v>
       </c>
       <c r="E28">
-        <v>522.749717335137</v>
+        <v>514.300137882897</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>96.0700096265293</v>
+        <v>96.2787845785217</v>
       </c>
       <c r="C29">
-        <v>96.0700096265293</v>
+        <v>96.2787845785217</v>
       </c>
       <c r="D29">
-        <v>411.192466321436</v>
+        <v>421.611844011865</v>
       </c>
       <c r="E29">
-        <v>498.648813402224</v>
+        <v>489.603081241288</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>89.2047210408237</v>
+        <v>89.224657298843</v>
       </c>
       <c r="C30">
-        <v>89.2047210408237</v>
+        <v>89.224657298843</v>
       </c>
       <c r="D30">
-        <v>462.958500219811</v>
+        <v>472.376607208038</v>
       </c>
       <c r="E30">
-        <v>467.158456099845</v>
+        <v>457.586820914293</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>80.7591158435139</v>
+        <v>80.5848486243049</v>
       </c>
       <c r="C31">
-        <v>80.7591158435139</v>
+        <v>80.5848486243049</v>
       </c>
       <c r="D31">
-        <v>496.222569285693</v>
+        <v>504.128073853719</v>
       </c>
       <c r="E31">
-        <v>427.838477428007</v>
+        <v>417.821841757236</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>70.6306208622897</v>
+        <v>70.2495748262241</v>
       </c>
       <c r="C32">
-        <v>70.6306208622897</v>
+        <v>70.2495748262241</v>
       </c>
       <c r="D32">
-        <v>505.535425141064</v>
+        <v>511.257850062662</v>
       </c>
       <c r="E32">
-        <v>379.681987392932</v>
+        <v>369.303908132205</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>58.5351814913206</v>
+        <v>57.9156516577646</v>
       </c>
       <c r="C33">
-        <v>58.5351814913206</v>
+        <v>57.9156516577646</v>
       </c>
       <c r="D33">
-        <v>482.633670500805</v>
+        <v>485.146086711833</v>
       </c>
       <c r="E33">
-        <v>320.447784731843</v>
+        <v>309.765908722097</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>43.7577606240657</v>
+        <v>42.8178273405874</v>
       </c>
       <c r="C34">
-        <v>43.7577606240657</v>
+        <v>42.8178273405874</v>
       </c>
       <c r="D34">
-        <v>412.563302557428</v>
+        <v>409.953069369966</v>
       </c>
       <c r="E34">
-        <v>245.027980742174</v>
+        <v>233.980670722425</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>24.5901428630582</v>
+        <v>23.1387565885757</v>
       </c>
       <c r="C35">
-        <v>24.5901428630582</v>
+        <v>23.1387565885757</v>
       </c>
       <c r="D35">
-        <v>263.942447634676</v>
+        <v>252.172926363741</v>
       </c>
       <c r="E35">
-        <v>141.610665455116</v>
+        <v>129.859276737148</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.03458900964059</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>2.03458900964059</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>24.8154870100906</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>12.1323939876292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>192.648658584835</v>
+        <v>228.557782592455</v>
       </c>
       <c r="C63">
-        <v>17.2591751232173</v>
+        <v>20.7368568527032</v>
       </c>
       <c r="D63">
-        <v>17.2591751232173</v>
+        <v>20.7368568527032</v>
       </c>
       <c r="E63">
-        <v>100.888714163605</v>
+        <v>117.727564932763</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>375.765573953157</v>
+        <v>397.090045122019</v>
       </c>
       <c r="C64">
-        <v>38.2917730224102</v>
+        <v>40.9974564076591</v>
       </c>
       <c r="D64">
-        <v>38.2917730224102</v>
+        <v>40.9974564076591</v>
       </c>
       <c r="E64">
-        <v>217.152220956196</v>
+        <v>226.365484479628</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>465.762801952635</v>
+        <v>478.455355779391</v>
       </c>
       <c r="C65">
-        <v>54.1824611660668</v>
+        <v>56.430386571693</v>
       </c>
       <c r="D65">
-        <v>54.1824611660668</v>
+        <v>56.430386571693</v>
       </c>
       <c r="E65">
-        <v>299.847429306141</v>
+        <v>304.675940016319</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>501.269512694781</v>
+        <v>508.506999766392</v>
       </c>
       <c r="C66">
-        <v>66.9972369443756</v>
+        <v>68.9758059509566</v>
       </c>
       <c r="D66">
-        <v>66.9972369443756</v>
+        <v>68.9758059509566</v>
       </c>
       <c r="E66">
-        <v>363.524501339546</v>
+        <v>365.753412487631</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>500.933940236765</v>
+        <v>504.221786406742</v>
       </c>
       <c r="C67">
-        <v>77.6857754666257</v>
+        <v>79.4725477456824</v>
       </c>
       <c r="D67">
-        <v>77.6857754666257</v>
+        <v>79.4725477456824</v>
       </c>
       <c r="E67">
-        <v>414.895844403702</v>
+        <v>415.365145100081</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>474.506568252855</v>
+        <v>474.677357442625</v>
       </c>
       <c r="C68">
-        <v>86.6292985931351</v>
+        <v>88.2545323049129</v>
       </c>
       <c r="D68">
-        <v>86.6292985931351</v>
+        <v>88.2545323049129</v>
       </c>
       <c r="E68">
-        <v>456.872595618437</v>
+        <v>456.008927652163</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>428.082798724478</v>
+        <v>425.680686013405</v>
       </c>
       <c r="C69">
-        <v>93.9722124887269</v>
+        <v>95.4450149297721</v>
       </c>
       <c r="D69">
-        <v>93.9722124887269</v>
+        <v>95.4450149297721</v>
       </c>
       <c r="E69">
-        <v>490.761512980189</v>
+        <v>488.79565256764</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>366.136952583993</v>
+        <v>361.576706185959</v>
       </c>
       <c r="C70">
-        <v>99.7568355912213</v>
+        <v>101.076463652048</v>
       </c>
       <c r="D70">
-        <v>99.7568355912213</v>
+        <v>101.076463652048</v>
       </c>
       <c r="E70">
-        <v>517.144586588459</v>
+        <v>514.207325415203</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>292.385777673076</v>
+        <v>286.024972103322</v>
       </c>
       <c r="C71">
-        <v>103.982751147635</v>
+        <v>105.144022152967</v>
       </c>
       <c r="D71">
-        <v>103.982751147635</v>
+        <v>105.144022152967</v>
       </c>
       <c r="E71">
-        <v>536.263500389617</v>
+        <v>532.432673680041</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>210.186911290424</v>
+        <v>202.361106185609</v>
       </c>
       <c r="C72">
-        <v>106.635402085305</v>
+        <v>107.63152739362</v>
       </c>
       <c r="D72">
-        <v>106.635402085305</v>
+        <v>107.63152739362</v>
       </c>
       <c r="E72">
-        <v>548.203410958598</v>
+        <v>543.529232694817</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>107.700607156718</v>
+        <v>108.52476674621</v>
       </c>
       <c r="C73">
-        <v>107.700607156718</v>
+        <v>108.52476674621</v>
       </c>
       <c r="D73">
-        <v>122.734547196243</v>
+        <v>113.775340283321</v>
       </c>
       <c r="E73">
-        <v>552.98545534725</v>
+        <v>547.505264559155</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>107.171703093513</v>
+        <v>107.817921539894</v>
       </c>
       <c r="C74">
-        <v>107.171703093513</v>
+        <v>107.817921539894</v>
       </c>
       <c r="D74">
-        <v>181.181481819743</v>
+        <v>192.229052070527</v>
       </c>
       <c r="E74">
-        <v>550.611917795745</v>
+        <v>544.359289567327</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>105.052064467016</v>
+        <v>105.515626201723</v>
       </c>
       <c r="C75">
-        <v>105.052064467016</v>
+        <v>105.515626201723</v>
       </c>
       <c r="D75">
-        <v>265.500649109084</v>
+        <v>276.629210975439</v>
       </c>
       <c r="E75">
-        <v>541.082087229091</v>
+        <v>534.092664883736</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>101.353875502716</v>
+        <v>101.631349190996</v>
       </c>
       <c r="C76">
-        <v>101.353875502716</v>
+        <v>101.631349190996</v>
       </c>
       <c r="D76">
-        <v>342.45913257069</v>
+        <v>353.294234476247</v>
       </c>
       <c r="E76">
-        <v>524.384534100742</v>
+        <v>516.699696621699</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>96.092734250429</v>
+        <v>96.1815433743614</v>
       </c>
       <c r="C77">
-        <v>96.092734250429</v>
+        <v>96.1815433743614</v>
       </c>
       <c r="D77">
-        <v>408.770028375464</v>
+        <v>418.9124132776</v>
       </c>
       <c r="E77">
-        <v>500.463057304144</v>
+        <v>492.131776591291</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>89.2761012461673</v>
+        <v>89.1733943602208</v>
       </c>
       <c r="C78">
-        <v>89.2761012461673</v>
+        <v>89.1733943602208</v>
       </c>
       <c r="D78">
-        <v>460.868555571474</v>
+        <v>469.875714785612</v>
       </c>
       <c r="E78">
-        <v>469.143274353969</v>
+        <v>460.221746395256</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>80.8806090964613</v>
+        <v>80.5807994257337</v>
       </c>
       <c r="C79">
-        <v>80.8806090964613</v>
+        <v>80.5807994257337</v>
       </c>
       <c r="D79">
-        <v>494.600366789444</v>
+        <v>501.947792396807</v>
       </c>
       <c r="E79">
-        <v>429.987201821039</v>
+        <v>420.534390581888</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>70.8060476573836</v>
+        <v>70.2954034288094</v>
       </c>
       <c r="C80">
-        <v>70.8060476573836</v>
+        <v>70.2954034288094</v>
       </c>
       <c r="D80">
-        <v>504.561331931414</v>
+        <v>509.556167356046</v>
       </c>
       <c r="E80">
-        <v>381.995948530755</v>
+        <v>372.059327324446</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>58.7742479244723</v>
+        <v>58.0180501524782</v>
       </c>
       <c r="C81">
-        <v>58.7742479244723</v>
+        <v>58.0180501524782</v>
       </c>
       <c r="D81">
-        <v>482.589254821068</v>
+        <v>484.161306486061</v>
       </c>
       <c r="E81">
-        <v>322.951424229867</v>
+        <v>312.52525864206</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>44.0850401866444</v>
+        <v>42.9944207450335</v>
       </c>
       <c r="C82">
-        <v>44.0850401866444</v>
+        <v>42.9944207450335</v>
       </c>
       <c r="D82">
-        <v>413.979487395994</v>
+        <v>410.124274864207</v>
       </c>
       <c r="E82">
-        <v>247.810537317137</v>
+        <v>236.712088379733</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>25.0618966998325</v>
+        <v>23.4315550792375</v>
       </c>
       <c r="C83">
-        <v>25.0618966998325</v>
+        <v>23.4315550792375</v>
       </c>
       <c r="D83">
-        <v>267.941582135387</v>
+        <v>254.427267500819</v>
       </c>
       <c r="E83">
-        <v>144.905263908726</v>
+        <v>132.552685397702</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>2.35142670753689</v>
+        <v>1.35589844548734</v>
       </c>
       <c r="C84">
-        <v>2.35142670753689</v>
+        <v>1.35589844548734</v>
       </c>
       <c r="D84">
-        <v>28.5658827037732</v>
+        <v>16.7314585276688</v>
       </c>
       <c r="E84">
-        <v>14.0802994736482</v>
+        <v>7.93396468379359</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2261,16 +2261,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>183.826133154067</v>
+        <v>219.551649231956</v>
       </c>
       <c r="C111">
-        <v>16.4112823937086</v>
+        <v>19.8611925108272</v>
       </c>
       <c r="D111">
-        <v>16.4112823937086</v>
+        <v>19.8611925108272</v>
       </c>
       <c r="E111">
-        <v>96.4199810652193</v>
+        <v>113.735000860917</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2278,16 +2278,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>370.681057148253</v>
+        <v>391.64250702441</v>
       </c>
       <c r="C112">
-        <v>37.6381932226998</v>
+        <v>40.3116371892182</v>
       </c>
       <c r="D112">
-        <v>37.6381932226998</v>
+        <v>40.3116371892182</v>
       </c>
       <c r="E112">
-        <v>214.428681766196</v>
+        <v>224.351073351836</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2295,16 +2295,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>462.939140804916</v>
+        <v>475.092070954211</v>
       </c>
       <c r="C113">
-        <v>53.6519830935016</v>
+        <v>55.8530546449107</v>
       </c>
       <c r="D113">
-        <v>53.6519830935016</v>
+        <v>55.8530546449107</v>
       </c>
       <c r="E113">
-        <v>298.162732026937</v>
+        <v>303.78215402427</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2312,16 +2312,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>499.85164167335</v>
+        <v>506.474161571596</v>
       </c>
       <c r="C114">
-        <v>66.5404363921074</v>
+        <v>68.4615445027557</v>
       </c>
       <c r="D114">
-        <v>66.5404363921074</v>
+        <v>68.4615445027557</v>
       </c>
       <c r="E114">
-        <v>362.450875129924</v>
+        <v>365.527016698599</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2329,16 +2329,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>500.515606113673</v>
+        <v>503.162955875691</v>
       </c>
       <c r="C115">
-        <v>77.282310485445</v>
+        <v>79.0026614809034</v>
       </c>
       <c r="D115">
-        <v>77.282310485445</v>
+        <v>79.0026614809034</v>
       </c>
       <c r="E115">
-        <v>414.237723603197</v>
+        <v>415.589446522871</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2346,16 +2346,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>474.861732433017</v>
+        <v>474.396314061398</v>
       </c>
       <c r="C116">
-        <v>86.2711482010371</v>
+        <v>87.821783451893</v>
       </c>
       <c r="D116">
-        <v>86.2711482010371</v>
+        <v>87.821783451893</v>
       </c>
       <c r="E116">
-        <v>456.53426585849</v>
+        <v>456.571712042838</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2363,16 +2363,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>429.062464952743</v>
+        <v>426.049989811109</v>
       </c>
       <c r="C117">
-        <v>93.6567642783212</v>
+        <v>95.0473465630017</v>
       </c>
       <c r="D117">
-        <v>93.6567642783212</v>
+        <v>95.0473465630017</v>
       </c>
       <c r="E117">
-        <v>490.693360273735</v>
+        <v>489.634927636473</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2380,16 +2380,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>367.626926445471</v>
+        <v>362.499622212972</v>
       </c>
       <c r="C118">
-        <v>99.4839366324655</v>
+        <v>100.714266117856</v>
       </c>
       <c r="D118">
-        <v>99.4839366324655</v>
+        <v>100.714266117856</v>
       </c>
       <c r="E118">
-        <v>517.31990187907</v>
+        <v>515.287105560554</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2397,16 +2397,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>294.287686307823</v>
+        <v>287.418078401992</v>
       </c>
       <c r="C119">
-        <v>103.753317437378</v>
+        <v>104.818811833095</v>
       </c>
       <c r="D119">
-        <v>103.753317437378</v>
+        <v>104.818811833095</v>
       </c>
       <c r="E119">
-        <v>536.667367317418</v>
+        <v>533.730944715869</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2414,16 +2414,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>212.409038579557</v>
+        <v>204.145771643832</v>
       </c>
       <c r="C120">
-        <v>106.450704387496</v>
+        <v>107.3452465055</v>
       </c>
       <c r="D120">
-        <v>106.450704387496</v>
+        <v>107.3452465055</v>
       </c>
       <c r="E120">
-        <v>548.826883200262</v>
+        <v>545.031368692907</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2431,16 +2431,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>107.561885732279</v>
+        <v>108.279387292405</v>
       </c>
       <c r="C121">
-        <v>107.561885732279</v>
+        <v>108.279387292405</v>
       </c>
       <c r="D121">
-        <v>125.187161700627</v>
+        <v>115.873334847517</v>
       </c>
       <c r="E121">
-        <v>553.822299724156</v>
+        <v>549.200114849668</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2448,16 +2448,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>107.079965344756</v>
+        <v>107.615217666641</v>
       </c>
       <c r="C122">
-        <v>107.079965344756</v>
+        <v>107.615217666641</v>
       </c>
       <c r="D122">
-        <v>178.405202570004</v>
+        <v>189.492536698332</v>
       </c>
       <c r="E122">
-        <v>551.656739671208</v>
+        <v>546.236675732735</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2465,16 +2465,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>105.008005016213</v>
+        <v>105.357056406455</v>
       </c>
       <c r="C123">
-        <v>105.008005016213</v>
+        <v>105.357056406455</v>
       </c>
       <c r="D123">
-        <v>262.772066749629</v>
+        <v>273.831545621904</v>
       </c>
       <c r="E123">
-        <v>542.329305039565</v>
+        <v>536.141669745678</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2482,16 +2482,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>101.357903195795</v>
+        <v>101.518029709013</v>
       </c>
       <c r="C124">
-        <v>101.357903195795</v>
+        <v>101.518029709013</v>
       </c>
       <c r="D124">
-        <v>339.87544321906</v>
+        <v>350.52616405035</v>
       </c>
       <c r="E124">
-        <v>525.827993876458</v>
+        <v>518.907425997739</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2499,16 +2499,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>96.1451271036812</v>
+        <v>96.1143248817275</v>
       </c>
       <c r="C125">
-        <v>96.1451271036812</v>
+        <v>96.1143248817275</v>
       </c>
       <c r="D125">
-        <v>406.434450202292</v>
+        <v>416.27089429611</v>
       </c>
       <c r="E125">
-        <v>502.096305154235</v>
+        <v>494.482438609635</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2516,16 +2516,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>89.3773623390002</v>
+        <v>89.1530956854562</v>
       </c>
       <c r="C126">
-        <v>89.3773623390002</v>
+        <v>89.1530956854562</v>
       </c>
       <c r="D126">
-        <v>458.895646128385</v>
+        <v>467.468030510616</v>
       </c>
       <c r="E126">
-        <v>470.960783990396</v>
+        <v>462.696028166197</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2533,16 +2533,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>81.0322056961532</v>
+        <v>80.6087382540394</v>
       </c>
       <c r="C127">
-        <v>81.0322056961532</v>
+        <v>80.6087382540394</v>
       </c>
       <c r="D127">
-        <v>493.12703487339</v>
+        <v>499.900291501307</v>
       </c>
       <c r="E127">
-        <v>431.987415193665</v>
+        <v>423.109340409406</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2550,16 +2550,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>71.0119946768748</v>
+        <v>70.3745875496103</v>
       </c>
       <c r="C128">
-        <v>71.0119946768748</v>
+        <v>70.3745875496103</v>
       </c>
       <c r="D128">
-        <v>503.771068792994</v>
+        <v>508.033917594771</v>
       </c>
       <c r="E128">
-        <v>384.188438200612</v>
+        <v>374.709586502796</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2567,16 +2567,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>59.0447923812308</v>
+        <v>58.156048400487</v>
       </c>
       <c r="C129">
-        <v>59.0447923812308</v>
+        <v>58.156048400487</v>
       </c>
       <c r="D129">
-        <v>482.770060159616</v>
+        <v>483.416070364579</v>
       </c>
       <c r="E129">
-        <v>325.374751932291</v>
+        <v>315.228597922672</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2584,16 +2584,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>44.4459879697945</v>
+        <v>43.2108919790629</v>
       </c>
       <c r="C130">
-        <v>44.4459879697945</v>
+        <v>43.2108919790629</v>
       </c>
       <c r="D130">
-        <v>415.676075131663</v>
+        <v>410.623664455378</v>
       </c>
       <c r="E130">
-        <v>250.580110749645</v>
+        <v>239.469060110033</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2601,16 +2601,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>25.5722254119899</v>
+        <v>23.7725557575109</v>
       </c>
       <c r="C131">
-        <v>25.5722254119899</v>
+        <v>23.7725557575109</v>
       </c>
       <c r="D131">
-        <v>272.307541402865</v>
+        <v>257.15780171337</v>
       </c>
       <c r="E131">
-        <v>148.307061302815</v>
+        <v>135.418067744062</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2618,16 +2618,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>2.72006438810965</v>
+        <v>1.54118743850685</v>
       </c>
       <c r="C132">
-        <v>2.72006438810965</v>
+        <v>1.54118743850685</v>
       </c>
       <c r="D132">
-        <v>32.9121722001724</v>
+        <v>18.945432191496</v>
       </c>
       <c r="E132">
-        <v>16.3388778951653</v>
+        <v>9.08501919582878</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3077,16 +3077,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>175.134351806011</v>
+        <v>210.5444528409</v>
       </c>
       <c r="C159">
-        <v>15.578948320146</v>
+        <v>18.9875315906359</v>
       </c>
       <c r="D159">
-        <v>15.578948320146</v>
+        <v>18.9875315906359</v>
       </c>
       <c r="E159">
-        <v>91.912506363312</v>
+        <v>109.577838560846</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3094,16 +3094,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>365.728536866846</v>
+        <v>386.262426131465</v>
       </c>
       <c r="C160">
-        <v>36.9981740845562</v>
+        <v>39.630673532322</v>
       </c>
       <c r="D160">
-        <v>36.9981740845562</v>
+        <v>39.630673532322</v>
       </c>
       <c r="E160">
-        <v>211.575408120905</v>
+        <v>222.132164472791</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3111,16 +3111,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>460.275108475059</v>
+        <v>471.849097464937</v>
       </c>
       <c r="C161">
-        <v>53.1376645913393</v>
+        <v>55.2847757589583</v>
       </c>
       <c r="D161">
-        <v>53.1376645913393</v>
+        <v>55.2847757589583</v>
       </c>
       <c r="E161">
-        <v>296.31441768505</v>
+        <v>302.670699413205</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3128,16 +3128,16 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>498.601428156019</v>
+        <v>504.586416617107</v>
       </c>
       <c r="C162">
-        <v>66.1018045757511</v>
+        <v>67.959324762474</v>
       </c>
       <c r="D162">
-        <v>66.1018045757511</v>
+        <v>67.959324762474</v>
       </c>
       <c r="E162">
-        <v>361.191823683078</v>
+        <v>365.073127771961</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3145,16 +3145,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>500.263357762974</v>
+        <v>502.26013599356</v>
       </c>
       <c r="C163">
-        <v>76.8987889384804</v>
+        <v>78.5473059020956</v>
       </c>
       <c r="D163">
-        <v>76.8987889384804</v>
+        <v>78.5473059020956</v>
       </c>
       <c r="E163">
-        <v>413.380316197882</v>
+        <v>415.580283234073</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3162,16 +3162,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>475.375632596658</v>
+        <v>474.273889102233</v>
       </c>
       <c r="C164">
-        <v>85.9345972920714</v>
+        <v>87.4058209854925</v>
       </c>
       <c r="D164">
-        <v>85.9345972920714</v>
+        <v>87.4058209854925</v>
       </c>
       <c r="E164">
-        <v>455.988273014952</v>
+        <v>456.898444294684</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3179,16 +3179,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>430.189266744151</v>
+        <v>426.574534116944</v>
       </c>
       <c r="C165">
-        <v>93.364462091709</v>
+        <v>94.6685687465104</v>
       </c>
       <c r="D165">
-        <v>93.364462091709</v>
+        <v>94.6685687465104</v>
       </c>
       <c r="E165">
-        <v>490.41299461087</v>
+        <v>490.238255037613</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3196,16 +3196,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>369.24895921602</v>
+        <v>363.569558185386</v>
       </c>
       <c r="C166">
-        <v>99.2356002025415</v>
+        <v>100.372927299367</v>
       </c>
       <c r="D166">
-        <v>99.2356002025415</v>
+        <v>100.372927299367</v>
       </c>
       <c r="E166">
-        <v>517.28117920225</v>
+        <v>516.133137630658</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3213,16 +3213,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>296.303617207607</v>
+        <v>288.94581802061</v>
       </c>
       <c r="C167">
-        <v>103.549706967206</v>
+        <v>104.516284254079</v>
       </c>
       <c r="D167">
-        <v>103.549706967206</v>
+        <v>104.516284254079</v>
       </c>
       <c r="E167">
-        <v>536.857371676602</v>
+        <v>534.799317136142</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3230,16 +3230,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>214.724618170163</v>
+        <v>206.048997348012</v>
       </c>
       <c r="C168">
-        <v>106.292912011854</v>
+        <v>107.083313149461</v>
       </c>
       <c r="D168">
-        <v>106.292912011854</v>
+        <v>107.083313149461</v>
       </c>
       <c r="E168">
-        <v>549.238210504989</v>
+        <v>546.308808216371</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3247,16 +3247,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>107.450956417333</v>
+        <v>108.059846602874</v>
       </c>
       <c r="C169">
-        <v>107.450956417333</v>
+        <v>108.059846602874</v>
       </c>
       <c r="D169">
-        <v>127.710520403232</v>
+        <v>118.070518827978</v>
       </c>
       <c r="E169">
-        <v>554.450005822788</v>
+        <v>550.676667161966</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3264,16 +3264,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>107.016702582956</v>
+        <v>107.439661236381</v>
       </c>
       <c r="C170">
-        <v>107.016702582956</v>
+        <v>107.439661236381</v>
       </c>
       <c r="D170">
-        <v>175.639596656328</v>
+        <v>186.733460855822</v>
       </c>
       <c r="E170">
-        <v>552.496643925355</v>
+        <v>547.903347135634</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3281,16 +3281,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>104.992900800728</v>
+        <v>105.226760379147</v>
       </c>
       <c r="C171">
-        <v>104.992900800728</v>
+        <v>105.226760379147</v>
       </c>
       <c r="D171">
-        <v>260.080989226238</v>
+        <v>271.038589605017</v>
       </c>
       <c r="E171">
-        <v>543.377143780459</v>
+        <v>537.988882448791</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3298,16 +3298,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>101.391177530597</v>
+        <v>101.433942047616</v>
       </c>
       <c r="C172">
-        <v>101.391177530597</v>
+        <v>101.433942047616</v>
       </c>
       <c r="D172">
-        <v>337.35680460482</v>
+        <v>347.792223380272</v>
       </c>
       <c r="E172">
-        <v>527.079243287763</v>
+        <v>520.923994630852</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3315,16 +3315,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>96.2268997694121</v>
+        <v>96.0771631739819</v>
       </c>
       <c r="C173">
-        <v>96.2268997694121</v>
+        <v>96.0771631739819</v>
       </c>
       <c r="D173">
-        <v>404.192018998655</v>
+        <v>413.695102529259</v>
       </c>
       <c r="E173">
-        <v>503.54673128681</v>
+        <v>496.654957898388</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3332,16 +3332,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>89.5080333410452</v>
+        <v>89.1636148413792</v>
       </c>
       <c r="C174">
-        <v>89.5080333410452</v>
+        <v>89.1636148413792</v>
       </c>
       <c r="D174">
-        <v>457.04457560015</v>
+        <v>465.16022947985</v>
       </c>
       <c r="E174">
-        <v>472.608085058067</v>
+        <v>465.008736928681</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3349,16 +3349,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>81.2132337853803</v>
+        <v>80.6683207297077</v>
       </c>
       <c r="C175">
-        <v>81.2132337853803</v>
+        <v>80.6683207297077</v>
       </c>
       <c r="D175">
-        <v>491.805253145189</v>
+        <v>497.990453178092</v>
       </c>
       <c r="E175">
-        <v>433.834948093669</v>
+        <v>425.544848171478</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3366,16 +3366,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>71.2475504677667</v>
+        <v>70.4865494562263</v>
       </c>
       <c r="C176">
-        <v>71.2475504677667</v>
+        <v>70.4865494562263</v>
       </c>
       <c r="D176">
-        <v>503.164226690454</v>
+        <v>506.693203180081</v>
       </c>
       <c r="E176">
-        <v>386.253629169913</v>
+        <v>377.251714588587</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3383,16 +3383,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>59.3455774132942</v>
+        <v>58.3287551986758</v>
       </c>
       <c r="C177">
-        <v>59.3455774132942</v>
+        <v>58.3287551986758</v>
       </c>
       <c r="D177">
-        <v>483.170890057095</v>
+        <v>482.907944710303</v>
       </c>
       <c r="E177">
-        <v>327.709459541339</v>
+        <v>317.87131468488</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3400,16 +3400,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>44.838838985461</v>
+        <v>43.465841949996</v>
       </c>
       <c r="C178">
-        <v>44.838838985461</v>
+        <v>43.465841949996</v>
       </c>
       <c r="D178">
-        <v>417.639577563469</v>
+        <v>411.440554261208</v>
       </c>
       <c r="E178">
-        <v>253.324029205192</v>
+        <v>242.244031422743</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3417,16 +3417,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>26.1184763829489</v>
+        <v>24.1595375072152</v>
       </c>
       <c r="C179">
-        <v>26.1184763829489</v>
+        <v>24.1595375072152</v>
       </c>
       <c r="D179">
-        <v>277.011657420727</v>
+        <v>260.338556042021</v>
       </c>
       <c r="E179">
-        <v>151.795241051934</v>
+        <v>138.442480963172</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3434,16 +3434,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>3.14329983098723</v>
+        <v>1.7659144675115</v>
       </c>
       <c r="C180">
-        <v>3.14329983098723</v>
+        <v>1.7659144675115</v>
       </c>
       <c r="D180">
-        <v>37.8811062021004</v>
+        <v>21.6236635862034</v>
       </c>
       <c r="E180">
-        <v>18.9213086146702</v>
+        <v>10.4754440648623</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3893,16 +3893,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>166.610618017599</v>
+        <v>201.566109692352</v>
       </c>
       <c r="C207">
-        <v>14.7657743872704</v>
+        <v>18.1190781518803</v>
       </c>
       <c r="D207">
-        <v>14.7657743872704</v>
+        <v>18.1190781518803</v>
       </c>
       <c r="E207">
-        <v>87.400175567093</v>
+        <v>105.285426587708</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3910,16 +3910,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>360.925971388131</v>
+        <v>380.964860498908</v>
       </c>
       <c r="C208">
-        <v>36.3739993590731</v>
+        <v>38.9566673567239</v>
       </c>
       <c r="D208">
-        <v>36.3739993590731</v>
+        <v>38.9566673567239</v>
       </c>
       <c r="E208">
-        <v>208.612424917573</v>
+        <v>219.726407795858</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3927,16 +3927,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>457.780815187348</v>
+        <v>468.736084585211</v>
       </c>
       <c r="C209">
-        <v>52.641279854625</v>
+        <v>54.7273189448374</v>
       </c>
       <c r="D209">
-        <v>52.641279854625</v>
+        <v>54.7273189448374</v>
       </c>
       <c r="E209">
-        <v>294.316417082767</v>
+        <v>301.354648844148</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3944,16 +3944,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>497.524116296874</v>
+        <v>502.849627637181</v>
       </c>
       <c r="C210">
-        <v>65.6828113152118</v>
+        <v>67.4707075412574</v>
       </c>
       <c r="D210">
-        <v>65.6828113152118</v>
+        <v>67.4707075412574</v>
       </c>
       <c r="E210">
-        <v>359.757849102356</v>
+        <v>364.402116142629</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3961,16 +3961,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>500.179026570075</v>
+        <v>501.516245962675</v>
       </c>
       <c r="C211">
-        <v>76.5364656182775</v>
+        <v>78.1078862682451</v>
       </c>
       <c r="D211">
-        <v>76.5364656182775</v>
+        <v>78.1078862682451</v>
       </c>
       <c r="E211">
-        <v>412.33191993989</v>
+        <v>415.346217704159</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3978,16 +3978,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>476.047510811009</v>
+        <v>474.310578723493</v>
       </c>
       <c r="C212">
-        <v>85.6207252198642</v>
+        <v>87.0079166622961</v>
       </c>
       <c r="D212">
-        <v>85.6207252198642</v>
+        <v>87.0079166622961</v>
       </c>
       <c r="E212">
-        <v>455.241321543748</v>
+        <v>456.99634648816</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3995,16 +3995,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>431.460398092157</v>
+        <v>427.252760982958</v>
       </c>
       <c r="C213">
-        <v>93.0962264218194</v>
+        <v>94.3098265179798</v>
       </c>
       <c r="D213">
-        <v>93.0962264218194</v>
+        <v>94.3098265179798</v>
       </c>
       <c r="E213">
-        <v>489.925851210702</v>
+        <v>490.611771853269</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4012,16 +4012,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>370.998606269832</v>
+        <v>364.783201889719</v>
       </c>
       <c r="C214">
-        <v>99.0125934506848</v>
+        <v>100.053464527899</v>
       </c>
       <c r="D214">
-        <v>99.0125934506848</v>
+        <v>100.053464527899</v>
       </c>
       <c r="E214">
-        <v>517.032762826854</v>
+        <v>516.750615993379</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4029,16 +4029,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>298.42783484093</v>
+        <v>290.603396963314</v>
       </c>
       <c r="C215">
-        <v>103.372533748124</v>
+        <v>104.237324218511</v>
       </c>
       <c r="D215">
-        <v>103.372533748124</v>
+        <v>104.237324218511</v>
       </c>
       <c r="E215">
-        <v>536.836865979694</v>
+        <v>535.642121615282</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4046,16 +4046,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>217.126944516075</v>
+        <v>208.064774771357</v>
       </c>
       <c r="C216">
-        <v>106.162483670607</v>
+        <v>106.846473121214</v>
       </c>
       <c r="D216">
-        <v>106.162483670607</v>
+        <v>106.846473121214</v>
       </c>
       <c r="E216">
-        <v>549.439807450397</v>
+        <v>547.365060773423</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4063,16 +4063,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>107.368119642661</v>
+        <v>107.866744563872</v>
       </c>
       <c r="C217">
-        <v>107.368119642661</v>
+        <v>107.866744563872</v>
       </c>
       <c r="D217">
-        <v>130.297260535764</v>
+        <v>120.3599437305</v>
       </c>
       <c r="E217">
-        <v>554.870076311335</v>
+        <v>551.937630818004</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4080,16 +4080,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>106.982053891271</v>
+        <v>107.291699544329</v>
       </c>
       <c r="C218">
-        <v>106.982053891271</v>
+        <v>107.291699544329</v>
       </c>
       <c r="D218">
-        <v>172.892646190164</v>
+        <v>183.960317509581</v>
       </c>
       <c r="E218">
-        <v>553.132228141132</v>
+        <v>549.36122053053</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4097,16 +4097,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>105.00672656793</v>
+        <v>105.125026552966</v>
       </c>
       <c r="C219">
-        <v>105.00672656793</v>
+        <v>105.125026552966</v>
       </c>
       <c r="D219">
-        <v>257.435082962899</v>
+        <v>268.25885518701</v>
       </c>
       <c r="E219">
-        <v>544.225286080538</v>
+        <v>539.635425023074</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4114,16 +4114,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>101.45350560538</v>
+        <v>101.379209623244</v>
       </c>
       <c r="C220">
-        <v>101.45350560538</v>
+        <v>101.379209623244</v>
       </c>
       <c r="D220">
-        <v>334.910210231222</v>
+        <v>345.100586599187</v>
       </c>
       <c r="E220">
-        <v>528.137020383529</v>
+        <v>522.749717335137</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4131,16 +4131,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>96.3376868935699</v>
+        <v>96.0700096265293</v>
       </c>
       <c r="C221">
-        <v>96.3376868935699</v>
+        <v>96.0700096265293</v>
       </c>
       <c r="D221">
-        <v>402.048656395385</v>
+        <v>411.192466321436</v>
       </c>
       <c r="E221">
-        <v>504.812069537457</v>
+        <v>498.648813402224</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4148,16 +4148,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>89.6675676753981</v>
+        <v>89.2047210408237</v>
       </c>
       <c r="C222">
-        <v>89.6675676753981</v>
+        <v>89.2047210408237</v>
       </c>
       <c r="D222">
-        <v>455.319717483612</v>
+        <v>462.958500219811</v>
       </c>
       <c r="E222">
-        <v>474.081795121002</v>
+        <v>467.158456099845</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4165,16 +4165,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>81.4229476836417</v>
+        <v>80.7591158435139</v>
       </c>
       <c r="C223">
-        <v>81.4229476836417</v>
+        <v>80.7591158435139</v>
       </c>
       <c r="D223">
-        <v>490.637220217939</v>
+        <v>496.222569285693</v>
       </c>
       <c r="E223">
-        <v>435.525090336604</v>
+        <v>427.838477428007</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4182,16 +4182,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>71.5117320138908</v>
+        <v>70.6306208622897</v>
       </c>
       <c r="C224">
-        <v>71.5117320138908</v>
+        <v>70.6306208622897</v>
       </c>
       <c r="D224">
-        <v>502.739889925305</v>
+        <v>505.535425141064</v>
       </c>
       <c r="E224">
-        <v>388.185069270738</v>
+        <v>379.681987392932</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4199,16 +4199,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>59.6752974972747</v>
+        <v>58.5351814913206</v>
       </c>
       <c r="C225">
-        <v>59.6752974972747</v>
+        <v>58.5351814913206</v>
       </c>
       <c r="D225">
-        <v>483.786069889164</v>
+        <v>482.633670500805</v>
       </c>
       <c r="E225">
-        <v>329.946488810991</v>
+        <v>320.447784731843</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4216,16 +4216,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>45.2617679291414</v>
+        <v>43.7577606240657</v>
       </c>
       <c r="C226">
-        <v>45.2617679291414</v>
+        <v>43.7577606240657</v>
       </c>
       <c r="D226">
-        <v>419.856195914799</v>
+        <v>412.563302557428</v>
       </c>
       <c r="E226">
-        <v>256.028683503783</v>
+        <v>245.027980742174</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4233,16 +4233,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>26.6979374727024</v>
+        <v>24.5901428630582</v>
       </c>
       <c r="C227">
-        <v>26.6979374727024</v>
+        <v>24.5901428630582</v>
       </c>
       <c r="D227">
-        <v>282.025269000153</v>
+        <v>263.942447634676</v>
       </c>
       <c r="E227">
-        <v>155.347652055791</v>
+        <v>141.610665455116</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4250,16 +4250,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>3.62288545699264</v>
+        <v>2.03458900964059</v>
       </c>
       <c r="C228">
-        <v>3.62288545699264</v>
+        <v>2.03458900964059</v>
       </c>
       <c r="D228">
-        <v>43.4866808271194</v>
+        <v>24.8154870100906</v>
       </c>
       <c r="E228">
-        <v>21.8327851867757</v>
+        <v>12.1323939876292</v>
       </c>
     </row>
     <row r="229" spans="1:5">
